--- a/biology/Zoologie/Australerpeton/Australerpeton.xlsx
+++ b/biology/Zoologie/Australerpeton/Australerpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Australerpeton cosgriffi
 Australerpeton est un genre éteint de temnospondyles stéréospondylomorphes actuellement considéré comme appartenant à la famille des Rhinesuchidae, ayant vécu durant le Permien supérieur dans ce qui est actuellement le Brésil. Une seule espèce est connue, Australerpeton cosgriffi, décrite en 1998 par le paléontologue brésilien Mário Costa Barberena (d) (1934-2013) à partir fossiles découvert dans la formation Rio do Rasto.
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque le genre Australerpeton est nommé pour la première fois en 1998, le genre a été placé dans la nouvelle famille des Australerpetontidae[1]. Cependant, des études publiées quelques années plus tard remettent en question la systématique utilisée dans la description originale et incluaient le genre au sein des Archegosauridae[2]. Une étude menée par Dias &amp; Schultz en 2003 a réaffecté Australerpeton à la famille des Rhinesuchidae au sein du sous-ordre des Stereospondyli sur la base d'une évaluation antérieure de la famille. Dans cette étude, les similitudes étroites entre Australerpeton et les archégosauridés ont été attribuées à une évolution convergente résultant de modes de vie semi-aquatiques similaires[3]. Une nouvelle description du squelette d'Australerpeton a été publiée par Eltink &amp; Langer en 2014, et le crâne a été redécrit dans une étude de suivi publiée par Eltink et al. en 2016[4],[5]. Ces études, ainsi qu'une étude de 2017 portant sur les rhinesuchidés en général, confirment qu'Australerpeton serait un rhinesuchidé plutôt qu'un archegosauridé[6]. Des fossiles du genre ont été trouvés dans la formation Rio do Rasto (en), au Brésil[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le genre Australerpeton est nommé pour la première fois en 1998, le genre a été placé dans la nouvelle famille des Australerpetontidae. Cependant, des études publiées quelques années plus tard remettent en question la systématique utilisée dans la description originale et incluaient le genre au sein des Archegosauridae. Une étude menée par Dias &amp; Schultz en 2003 a réaffecté Australerpeton à la famille des Rhinesuchidae au sein du sous-ordre des Stereospondyli sur la base d'une évaluation antérieure de la famille. Dans cette étude, les similitudes étroites entre Australerpeton et les archégosauridés ont été attribuées à une évolution convergente résultant de modes de vie semi-aquatiques similaires. Une nouvelle description du squelette d'Australerpeton a été publiée par Eltink &amp; Langer en 2014, et le crâne a été redécrit dans une étude de suivi publiée par Eltink et al. en 2016,. Ces études, ainsi qu'une étude de 2017 portant sur les rhinesuchidés en général, confirment qu'Australerpeton serait un rhinesuchidé plutôt qu'un archegosauridé. Des fossiles du genre ont été trouvés dans la formation Rio do Rasto (en), au Brésil.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cladogramme des Stereospondyli</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011) :
 </t>
         </is>
       </c>
